--- a/others/量化投资/THS/组合/保存的数据/持仓详情.xlsx
+++ b/others/量化投资/THS/组合/保存的数据/持仓详情.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>盈亏率(%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>持仓比例(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>入仓时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>现价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏率(%)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持仓比例(%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>入仓时间</t>
         </is>
       </c>
     </row>
@@ -481,25 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>梦想一号</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中芯国际</t>
+          <t>云铝股份</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.6932</v>
+        <v>13.1</v>
       </c>
       <c r="E2" t="n">
-        <v>86.45</v>
+        <v>22.79</v>
       </c>
       <c r="F2" t="n">
-        <v>708.1800000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.42</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -509,28 +511,218 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>梦想一号</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>云铝股份</t>
+          <t>中芯国际</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>10.6932</v>
+      </c>
+      <c r="E3" t="n">
+        <v>774.76</v>
+      </c>
       <c r="F3" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2023-03-14</t>
-        </is>
+        <v>1.55</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16281</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19347</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国盛金控</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-14.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19347</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>铭科精技</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-8.83</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13081</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒瑞医药</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-42.5126</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>42.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14980</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>菲菱科思</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>89.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14980</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景嘉微</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>60.2542</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>90.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11094</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信海直</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>22.57</v>
       </c>
     </row>
   </sheetData>
